--- a/biology/Médecine/Kétorolac/Kétorolac.xlsx
+++ b/biology/Médecine/Kétorolac/Kétorolac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A9torolac</t>
+          <t>Kétorolac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le kétorolac ou kétorolac trométhamine est un composé dérivé de l'acide propionique, connu comme anti-inflammatoire non stéroïdien (AINS), souvent utilisé comme analgésique, antipyrétique (fébrifuge) et anti-inflammatoire.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C3%A9torolac</t>
+          <t>Kétorolac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kétorolac, ainsi que les autres dérivés du 2-arylpropionate — parmi lesquels le kétoprofène, le naproxène, l'ibuprofène, etc. — contient un centre stéréogène en position β sur sa moitié propionate. Dès lors, les deux énantiomères pourraient avoir des effets biologiques et un métabolisme différents.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C3%A9torolac</t>
+          <t>Kétorolac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Inhibiteur non-sélectif de la cyclogénase-1 et 2. Le kétorolac a cependant beaucoup plus d'affinité pour la COX-1.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>K%C3%A9torolac</t>
+          <t>Kétorolac</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kétorolac est indiqué pour le traitement de la douleur, jusqu'à cinq jours.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>K%C3%A9torolac</t>
+          <t>Kétorolac</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Similaires à ceux des autres anti-inflammatoires non stéroïdiens.[pas clair].
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>K%C3%A9torolac</t>
+          <t>Kétorolac</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Précautions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Donne mal à l'estomac. </t>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>K%C3%A9torolac</t>
+          <t>Kétorolac</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Dosage et disponibilité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous forme orale, la dose habituelle est de 10 mg. Sous forme injectable (intramusculaire), elle est de 15, 30 et 60 mg.
 </t>
@@ -682,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>K%C3%A9torolac</t>
+          <t>Kétorolac</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -700,9 +724,11 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utilisé lors d'opérations chirurgicales contre le cancer, il diminue la mortalité toutes causes confondues de 37 %[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utilisé lors d'opérations chirurgicales contre le cancer, il diminue la mortalité toutes causes confondues de 37 %.
 </t>
         </is>
       </c>
